--- a/documents/RCMGA PROJECT LEADS 2025.xlsx
+++ b/documents/RCMGA PROJECT LEADS 2025.xlsx
@@ -24,32 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>RCMGA Project Leads 2025</t>
   </si>
   <si>
-    <t>CROSS PLAINS TRASH TO TREASURE</t>
-  </si>
-  <si>
     <t>GWEN DAY</t>
   </si>
   <si>
     <t>C 615-438-0870</t>
   </si>
   <si>
-    <t>POLLINATOR</t>
-  </si>
-  <si>
-    <t>CIRCLE GARDEN</t>
-  </si>
-  <si>
     <t>UT EXTENSION OFFICE</t>
   </si>
   <si>
-    <t>RACHEL RAGLAND</t>
-  </si>
-  <si>
     <t>C 469-865-0182</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>JEFF BAYER</t>
   </si>
   <si>
-    <t>C 760-238-0763</t>
-  </si>
-  <si>
     <t>HOLLY BROOKS</t>
   </si>
   <si>
@@ -137,12 +122,6 @@
     <t>C 615-419-5249</t>
   </si>
   <si>
-    <t>HEAD HOUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREENBRIER HISTORICAL  </t>
-  </si>
-  <si>
     <t>KALISHA FLEISCHMANN</t>
   </si>
   <si>
@@ -201,13 +180,37 @@
   </si>
   <si>
     <t>HR FRONT OFFICE &amp; HEAD HOUSE</t>
+  </si>
+  <si>
+    <t>RACHAEL RAGLAND</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>CROSS PLAINS &amp; TRASH TO TREASURE</t>
+  </si>
+  <si>
+    <t>POLLINATOR &amp; CIRCLE GARDEN</t>
+  </si>
+  <si>
+    <t>WOODLAND GARDEN @ HEAD HOUSE</t>
+  </si>
+  <si>
+    <t>GREENBRIER HISTORICAL SOCIETY</t>
+  </si>
+  <si>
+    <t>GWEN DAY &amp; DOROTHY</t>
+  </si>
+  <si>
+    <t>C 760-861-4833</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +238,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,11 +266,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -276,6 +283,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,358 +581,366 @@
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="C22" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
